--- a/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_0.xlsx
+++ b/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_0.xlsx
@@ -1,7 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="API-Testing" sheetId="1" r:id="rId4"/>
   </sheets>
@@ -81,34 +84,62 @@
   <si>
     <t>POST</t>
   </si>
+  <si>
+    <t>RequestHeaders</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>ExcludeFields</t>
+  </si>
+  <si>
+    <t>StatusCode</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
     </font>
     <font>
-      <color theme="1"/>
       <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
     </font>
     <font>
+      <name val="Consolas"/>
       <b/>
       <color rgb="FF008000"/>
-      <name val="Consolas"/>
+      <sz val="12"/>
     </font>
     <font>
+      <name val="Inconsolata"/>
       <b/>
-      <u/>
-      <sz val="11.0"/>
       <color rgb="FF1155CC"/>
-      <name val="Inconsolata"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
-    <font/>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -128,27 +159,17 @@
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -364,19 +385,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="3" max="3" width="176.14"/>
-    <col customWidth="1" min="6" max="6" width="21.71"/>
-    <col customWidth="1" min="8" max="8" width="23.29"/>
+    <col min="2" max="2" width="18.14" customWidth="1"/>
+    <col min="3" max="3" width="176.14" customWidth="1"/>
+    <col min="6" max="6" width="21.71" customWidth="1"/>
+    <col min="8" max="8" width="23.29" customWidth="1"/>
+    <col min="10" max="10" width="18.42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -396,7 +420,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -405,13 +429,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -434,7 +458,7 @@
         <v>16</v>
       </c>
       <c r="K2" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +484,7 @@
         <v>22</v>
       </c>
       <c r="K3" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -470,8 +494,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_0.xlsx
+++ b/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_0.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Extra\Conflict Resolving\idaithalam\samples\idaithalam-excel-apitesting\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB1AE0E-FF6B-4AD5-A4F9-2D6844377993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="API-Testing" sheetId="1" r:id="rId4"/>
+    <sheet name="API-Testing" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -31,24 +37,12 @@
     <t>RequestFile</t>
   </si>
   <si>
-    <t>RequestProcessingType</t>
-  </si>
-  <si>
     <t>ResponseFile</t>
   </si>
   <si>
     <t>ResponseProcessingType</t>
   </si>
   <si>
-    <t>HTTPAction</t>
-  </si>
-  <si>
-    <t>ExcludeField</t>
-  </si>
-  <si>
-    <t>HttpStatusCode</t>
-  </si>
-  <si>
     <t>PetGet</t>
   </si>
   <si>
@@ -95,50 +89,46 @@
   </si>
   <si>
     <t>StatusCode</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
       <name val="Consolas"/>
-      <b/>
-      <color rgb="FF008000"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
       <name val="Inconsolata"/>
-      <b/>
-      <color rgb="FF1155CC"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="3">
@@ -146,7 +136,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -156,10 +146,16 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -173,25 +169,28 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -381,122 +380,134 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.14" customWidth="1"/>
-    <col min="3" max="3" width="176.14" customWidth="1"/>
-    <col min="6" max="6" width="21.71" customWidth="1"/>
-    <col min="8" max="8" width="23.29" customWidth="1"/>
-    <col min="10" max="10" width="18.42" customWidth="1"/>
+    <col min="2" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="176.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1">
+        <v>200</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>200</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2">
+  <conditionalFormatting sqref="H2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(G2))&gt;0</formula>
+      <formula>LEN(TRIM(H2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>